--- a/data_year/zb/旅游业/国内旅游情况.xlsx
+++ b/data_year/zb/旅游业/国内旅游情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,715 +483,443 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>226.6</v>
+        <v>306</v>
       </c>
       <c r="C2" t="n">
-        <v>940.28</v>
+        <v>3175.96</v>
       </c>
       <c r="D2" t="n">
-        <v>415</v>
+        <v>1038</v>
       </c>
       <c r="E2" t="n">
-        <v>426.6</v>
+        <v>598.2</v>
       </c>
       <c r="F2" t="n">
-        <v>3175.54</v>
+        <v>12579.77</v>
       </c>
       <c r="G2" t="n">
-        <v>744</v>
+        <v>2103</v>
       </c>
       <c r="H2" t="n">
-        <v>678.6</v>
+        <v>883</v>
       </c>
       <c r="I2" t="n">
-        <v>2235.26</v>
+        <v>9403.809999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>329</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>212.7</v>
+        <v>471.4</v>
       </c>
       <c r="C3" t="n">
-        <v>870.6900000000001</v>
+        <v>4496.78</v>
       </c>
       <c r="D3" t="n">
-        <v>409</v>
+        <v>954</v>
       </c>
       <c r="E3" t="n">
-        <v>449.5</v>
+        <v>731</v>
       </c>
       <c r="F3" t="n">
-        <v>3522.37</v>
+        <v>19305.39</v>
       </c>
       <c r="G3" t="n">
-        <v>784</v>
+        <v>2641</v>
       </c>
       <c r="H3" t="n">
-        <v>708.3</v>
+        <v>877.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2651.68</v>
+        <v>14808.61</v>
       </c>
       <c r="J3" t="n">
-        <v>375</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>209.1</v>
+        <v>491</v>
       </c>
       <c r="C4" t="n">
-        <v>1030.27</v>
+        <v>5028.2</v>
       </c>
       <c r="D4" t="n">
-        <v>493</v>
+        <v>1024</v>
       </c>
       <c r="E4" t="n">
-        <v>441.8</v>
+        <v>767.9</v>
       </c>
       <c r="F4" t="n">
-        <v>3878.36</v>
+        <v>22706.2</v>
       </c>
       <c r="G4" t="n">
-        <v>878</v>
+        <v>2957</v>
       </c>
       <c r="H4" t="n">
-        <v>739.7</v>
+        <v>914.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2848.09</v>
+        <v>17678</v>
       </c>
       <c r="J4" t="n">
-        <v>385</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>200</v>
+        <v>518.9</v>
       </c>
       <c r="C5" t="n">
-        <v>1038.19</v>
+        <v>5583.5</v>
       </c>
       <c r="D5" t="n">
-        <v>519</v>
+        <v>1076</v>
       </c>
       <c r="E5" t="n">
-        <v>395.7</v>
+        <v>805.5</v>
       </c>
       <c r="F5" t="n">
-        <v>3442.27</v>
+        <v>26276.1</v>
       </c>
       <c r="G5" t="n">
-        <v>870</v>
+        <v>3262</v>
       </c>
       <c r="H5" t="n">
-        <v>684.9</v>
+        <v>946.6</v>
       </c>
       <c r="I5" t="n">
-        <v>2404.08</v>
+        <v>20692.6</v>
       </c>
       <c r="J5" t="n">
-        <v>351</v>
+        <v>2186</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210.2</v>
+        <v>540.2</v>
       </c>
       <c r="C6" t="n">
-        <v>1351.67</v>
+        <v>6092.11</v>
       </c>
       <c r="D6" t="n">
-        <v>643</v>
+        <v>1128</v>
       </c>
       <c r="E6" t="n">
-        <v>427.5</v>
+        <v>839.7</v>
       </c>
       <c r="F6" t="n">
-        <v>4710.71</v>
+        <v>30311.86</v>
       </c>
       <c r="G6" t="n">
-        <v>1102</v>
+        <v>3611</v>
       </c>
       <c r="H6" t="n">
-        <v>731.8</v>
+        <v>975.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3359.04</v>
+        <v>24219.76</v>
       </c>
       <c r="J6" t="n">
-        <v>459</v>
+        <v>2483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>227.6</v>
+        <v>554.2</v>
       </c>
       <c r="C7" t="n">
-        <v>1629.73</v>
+        <v>6584.2</v>
       </c>
       <c r="D7" t="n">
-        <v>716</v>
+        <v>1188</v>
       </c>
       <c r="E7" t="n">
-        <v>436.1</v>
+        <v>857</v>
       </c>
       <c r="F7" t="n">
-        <v>5285.86</v>
+        <v>34195.1</v>
       </c>
       <c r="G7" t="n">
-        <v>1212</v>
+        <v>3990</v>
       </c>
       <c r="H7" t="n">
-        <v>737.1</v>
+        <v>985.5</v>
       </c>
       <c r="I7" t="n">
-        <v>3656.13</v>
+        <v>27610.9</v>
       </c>
       <c r="J7" t="n">
-        <v>496</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>221.9</v>
+        <v>576.4</v>
       </c>
       <c r="C8" t="n">
-        <v>1815</v>
+        <v>7147.9</v>
       </c>
       <c r="D8" t="n">
-        <v>818</v>
+        <v>1240</v>
       </c>
       <c r="E8" t="n">
-        <v>446.9</v>
+        <v>888.2</v>
       </c>
       <c r="F8" t="n">
-        <v>6229.7</v>
+        <v>39389.82</v>
       </c>
       <c r="G8" t="n">
-        <v>1394</v>
+        <v>4435</v>
       </c>
       <c r="H8" t="n">
-        <v>766.4</v>
+        <v>1009.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4414.7</v>
+        <v>32241.9</v>
       </c>
       <c r="J8" t="n">
-        <v>576</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>222.5</v>
+        <v>603.3</v>
       </c>
       <c r="C9" t="n">
-        <v>2220.2</v>
+        <v>7987.7</v>
       </c>
       <c r="D9" t="n">
-        <v>998</v>
+        <v>1324</v>
       </c>
       <c r="E9" t="n">
-        <v>482.6</v>
+        <v>913</v>
       </c>
       <c r="F9" t="n">
-        <v>7770.6</v>
+        <v>45660.77</v>
       </c>
       <c r="G9" t="n">
-        <v>1610</v>
+        <v>5001</v>
       </c>
       <c r="H9" t="n">
-        <v>906.9</v>
+        <v>1024.6</v>
       </c>
       <c r="I9" t="n">
-        <v>5550.4</v>
+        <v>37673</v>
       </c>
       <c r="J9" t="n">
-        <v>612</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>275.28</v>
+        <v>611.85</v>
       </c>
       <c r="C10" t="n">
-        <v>2777.55</v>
+        <v>8688.299999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>1009</v>
+        <v>1420</v>
       </c>
       <c r="E10" t="n">
-        <v>511.0312510959</v>
+        <v>925.77</v>
       </c>
       <c r="F10" t="n">
-        <v>8749.2959184192</v>
+        <v>51278.29</v>
       </c>
       <c r="G10" t="n">
-        <v>1712</v>
+        <v>5539</v>
       </c>
       <c r="H10" t="n">
-        <v>849.3617523746</v>
+        <v>1033.99</v>
       </c>
       <c r="I10" t="n">
-        <v>5971.7459184192</v>
+        <v>42589.99</v>
       </c>
       <c r="J10" t="n">
-        <v>703</v>
+        <v>4119</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>295.3</v>
+        <v>634.66</v>
       </c>
       <c r="C11" t="n">
-        <v>2949.9</v>
+        <v>9741.93</v>
       </c>
       <c r="D11" t="n">
-        <v>999</v>
+        <v>1535</v>
       </c>
       <c r="E11" t="n">
-        <v>535.4</v>
+        <v>953.25</v>
       </c>
       <c r="F11" t="n">
-        <v>10183.7</v>
+        <v>57250.92</v>
       </c>
       <c r="G11" t="n">
-        <v>1902</v>
+        <v>6006</v>
       </c>
       <c r="H11" t="n">
-        <v>801.1</v>
+        <v>1062.64</v>
       </c>
       <c r="I11" t="n">
-        <v>7233.8</v>
+        <v>47508.99</v>
       </c>
       <c r="J11" t="n">
-        <v>903</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>306</v>
+        <v>530.47</v>
       </c>
       <c r="C12" t="n">
-        <v>3175.96</v>
+        <v>4319.8</v>
       </c>
       <c r="D12" t="n">
-        <v>1038</v>
+        <v>814</v>
       </c>
       <c r="E12" t="n">
-        <v>598.2</v>
+        <v>774.14</v>
       </c>
       <c r="F12" t="n">
-        <v>12579.77</v>
+        <v>22286.3</v>
       </c>
       <c r="G12" t="n">
-        <v>2103</v>
+        <v>2879</v>
       </c>
       <c r="H12" t="n">
-        <v>883</v>
+        <v>870.25</v>
       </c>
       <c r="I12" t="n">
-        <v>9403.809999999999</v>
+        <v>17966.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1065</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.4</v>
+        <v>613.6</v>
       </c>
       <c r="C13" t="n">
-        <v>4496.78</v>
+        <v>5546.6</v>
       </c>
       <c r="D13" t="n">
-        <v>954</v>
+        <v>904</v>
       </c>
       <c r="E13" t="n">
-        <v>731</v>
+        <v>899.3</v>
       </c>
       <c r="F13" t="n">
-        <v>19305.39</v>
+        <v>29190.7</v>
       </c>
       <c r="G13" t="n">
-        <v>2641</v>
+        <v>3246</v>
       </c>
       <c r="H13" t="n">
-        <v>877.8</v>
+        <v>1009.6</v>
       </c>
       <c r="I13" t="n">
-        <v>14808.61</v>
+        <v>23644.2</v>
       </c>
       <c r="J13" t="n">
-        <v>1687</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>491</v>
+        <v>592.8</v>
       </c>
       <c r="C14" t="n">
-        <v>5028.2</v>
+        <v>3562.68</v>
       </c>
       <c r="D14" t="n">
-        <v>1024</v>
+        <v>601</v>
       </c>
       <c r="E14" t="n">
-        <v>767.9</v>
+        <v>808.1</v>
       </c>
       <c r="F14" t="n">
-        <v>22706.2</v>
+        <v>20444</v>
       </c>
       <c r="G14" t="n">
-        <v>2957</v>
+        <v>2530</v>
       </c>
       <c r="H14" t="n">
-        <v>914.5</v>
+        <v>875.6</v>
       </c>
       <c r="I14" t="n">
-        <v>17678</v>
+        <v>16881.32</v>
       </c>
       <c r="J14" t="n">
-        <v>1933</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>518.9</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5583.5</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1076</v>
-      </c>
-      <c r="E15" t="n">
-        <v>805.5</v>
-      </c>
-      <c r="F15" t="n">
-        <v>26276.1</v>
-      </c>
-      <c r="G15" t="n">
-        <v>3262</v>
-      </c>
-      <c r="H15" t="n">
-        <v>946.6</v>
-      </c>
-      <c r="I15" t="n">
-        <v>20692.6</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2186</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>540.2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6092.11</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1128</v>
-      </c>
-      <c r="E16" t="n">
-        <v>839.7</v>
-      </c>
-      <c r="F16" t="n">
-        <v>30311.86</v>
-      </c>
-      <c r="G16" t="n">
-        <v>3611</v>
-      </c>
-      <c r="H16" t="n">
-        <v>975.4</v>
-      </c>
-      <c r="I16" t="n">
-        <v>24219.76</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2483</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>554.2</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6584.2</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1188</v>
-      </c>
-      <c r="E17" t="n">
-        <v>857</v>
-      </c>
-      <c r="F17" t="n">
-        <v>34195.1</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3990</v>
-      </c>
-      <c r="H17" t="n">
-        <v>985.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27610.9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2802</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>576.4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>7147.9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1240</v>
-      </c>
-      <c r="E18" t="n">
-        <v>888.2</v>
-      </c>
-      <c r="F18" t="n">
-        <v>39389.82</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4435</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1009.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>32241.9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3195</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>603.3</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7987.7</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1324</v>
-      </c>
-      <c r="E19" t="n">
-        <v>913</v>
-      </c>
-      <c r="F19" t="n">
-        <v>45660.77</v>
-      </c>
-      <c r="G19" t="n">
-        <v>5001</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1024.6</v>
-      </c>
-      <c r="I19" t="n">
-        <v>37673</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3677</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>611.85</v>
-      </c>
-      <c r="C20" t="n">
-        <v>8688.299999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1420</v>
-      </c>
-      <c r="E20" t="n">
-        <v>925.77</v>
-      </c>
-      <c r="F20" t="n">
-        <v>51278.29</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5539</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1033.99</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42589.99</v>
-      </c>
-      <c r="J20" t="n">
-        <v>4119</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>634.66</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9741.93</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1535</v>
-      </c>
-      <c r="E21" t="n">
-        <v>953.25</v>
-      </c>
-      <c r="F21" t="n">
-        <v>57250.92</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6006</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1062.64</v>
-      </c>
-      <c r="I21" t="n">
-        <v>47508.99</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4471</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>530.47</v>
-      </c>
-      <c r="C22" t="n">
-        <v>4319.8</v>
-      </c>
-      <c r="D22" t="n">
-        <v>814</v>
-      </c>
-      <c r="E22" t="n">
-        <v>774.14</v>
-      </c>
-      <c r="F22" t="n">
-        <v>22286.3</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2879</v>
-      </c>
-      <c r="H22" t="n">
-        <v>870.25</v>
-      </c>
-      <c r="I22" t="n">
-        <v>17966.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2065</v>
+        <v>1928</v>
       </c>
     </row>
   </sheetData>
